--- a/ListeParticipantsDéfis.xlsx
+++ b/ListeParticipantsDéfis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecstjeanqc-my.sharepoint.com/personal/mbouthillier_cstjean_qc_ca/Documents/13_A24/Correction A24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecstjeanqc-my.sharepoint.com/personal/kbessette_cstjean_qc_ca/Documents/Session 2024-2025/A24-420-1A6-ST-prog-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{29EC5087-7755-4BB6-A89E-4394D2C6E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C19DA4E-0C26-459A-B4A5-311496B9D40F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{29EC5087-7755-4BB6-A89E-4394D2C6E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E21A35-D43B-4B86-A128-9A10FC6FB78C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B6500B3-7F37-4E37-AC86-2B4F91C2E642}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B6500B3-7F37-4E37-AC86-2B4F91C2E642}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Aboto, Heros Credo</t>
   </si>
@@ -159,6 +159,120 @@
   </si>
   <si>
     <t>"{ name: "</t>
+  </si>
+  <si>
+    <t>"{ name: "Aboto, Heros Credo", da: "2309415" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Ahmadi, Samir", da: "2250998" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Archambault Vallée, Logan", da: "6311993" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Bossé, Édouard", da: "6302314" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Cuerrier, Samuel", da: "6297553" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Henley, Jeremy", da: "1829097" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Jalbert, Yoan", da: "6294918" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Labelle, Rémi", da: "6327999" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Lajeunesse, Félix", da: "6310376" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Lemaire, Elliot", da: "6323648" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Lizotte, William", da: "6183688" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Paiement, Shawn", da: "2485319" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Pellatt-Truong, David", da: "6328096" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Poirier, Jérémy", da: "6302610" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Rodier, Charlie", da: "2364680" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Sassi, Mikael-Wassim", da: "6298609" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Savaria, Nicolas", da: "2463669" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Sow, Mamadou Saliou", da: "6339575" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Beauchesne, Mathieu", da: "1660372" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Blouin, Lili-Rose", da: "2163353" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Carbonneau, Louis-Charles", da: "2490471" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Couture, Joël", da: "6317531" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Djaha, Lord", da: "6303291" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Fall, Moussa", da: "2481502" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Georgiev, Stanislav Georgiev", da: "2494186" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Henrichon, Samuel", da: "6287923" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Iradukunda, Beni Odyssey", da: "6320121" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Leblanc, Ian", da: "1682585" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Léveillé, Victor", da: "2390388" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Loiselle, Laurianne", da: "2047852" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Nana Tchuatchui, Arnaud Edmond", da: "2352330" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Nguyen, Manh Duc", da: "1973680" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Pazzi, Zachary", da: "6346389" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Rondeau, Benjamin", da: "6298861" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Sant Anna De Lima, Bruno", da: "6315593" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Synnott, Alexandre", da: "2467035" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Szwec-Chevrier, Vincent", da: "1668852" },</t>
+  </si>
+  <si>
+    <t>"{ name: "Trépanier, Julien", da: "2167562" },</t>
   </si>
 </sst>
 </file>
@@ -194,9 +308,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,22 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF3BDD-658A-4CEC-B532-5AAD165288C1}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>2309415</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -555,19 +665,19 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="str">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="str">
         <f>D1&amp;B1&amp;E1&amp;A1&amp;F1</f>
         <v>"{ name: "Aboto, Heros Credo", da: "2309415" },</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2250998</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -576,19 +686,19 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="str">
         <f t="shared" ref="G2:G38" si="0">D2&amp;B2&amp;E2&amp;A2&amp;F2</f>
         <v>"{ name: "Ahmadi, Samir", da: "2250998" },</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>6311993</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -597,19 +707,19 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="str">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Archambault Vallée, Logan", da: "6311993" },</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>6302314</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -618,19 +728,19 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="str">
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Bossé, Édouard", da: "6302314" },</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>6297553</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -639,19 +749,19 @@
       <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Cuerrier, Samuel", da: "6297553" },</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1829097</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -660,19 +770,19 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Henley, Jeremy", da: "1829097" },</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6294918</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -681,19 +791,19 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Jalbert, Yoan", da: "6294918" },</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6327999</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -702,19 +812,19 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="str">
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Labelle, Rémi", da: "6327999" },</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6310376</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
@@ -723,19 +833,19 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="str">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Lajeunesse, Félix", da: "6310376" },</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6323648</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -744,19 +854,19 @@
       <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="str">
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Lemaire, Elliot", da: "6323648" },</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>6183688</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
@@ -765,19 +875,19 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="str">
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Lizotte, William", da: "6183688" },</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2485319</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
@@ -786,19 +896,19 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="str">
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Paiement, Shawn", da: "2485319" },</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>6328096</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
@@ -807,19 +917,19 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="str">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Pellatt-Truong, David", da: "6328096" },</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>6302610</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
@@ -828,19 +938,19 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="str">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Poirier, Jérémy", da: "6302610" },</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2364680</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
@@ -849,19 +959,19 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1" t="str">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Rodier, Charlie", da: "2364680" },</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>6298609</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
@@ -870,19 +980,19 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1" t="str">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Sassi, Mikael-Wassim", da: "6298609" },</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2463669</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
@@ -891,19 +1001,19 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="str">
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Savaria, Nicolas", da: "2463669" },</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>6339575</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
@@ -912,19 +1022,19 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Sow, Mamadou Saliou", da: "6339575" },</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1660372</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
@@ -933,19 +1043,19 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1" t="str">
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Beauchesne, Mathieu", da: "1660372" },</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2163353</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
@@ -954,19 +1064,19 @@
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="1" t="str">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Blouin, Lili-Rose", da: "2163353" },</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2490471</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
@@ -975,19 +1085,19 @@
       <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="1" t="str">
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Carbonneau, Louis-Charles", da: "2490471" },</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>6317531</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
@@ -996,19 +1106,19 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="str">
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Couture, Joël", da: "6317531" },</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>6303291</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
@@ -1017,19 +1127,19 @@
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="1" t="str">
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Djaha, Lord", da: "6303291" },</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>2481502</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
@@ -1038,19 +1148,19 @@
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="str">
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Fall, Moussa", da: "2481502" },</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2494186</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
@@ -1059,19 +1169,19 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1" t="str">
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Georgiev, Stanislav Georgiev", da: "2494186" },</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>6287923</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
@@ -1080,19 +1190,19 @@
       <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="1" t="str">
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Henrichon, Samuel", da: "6287923" },</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>6320121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
@@ -1101,19 +1211,19 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="str">
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Iradukunda, Beni Odyssey", da: "6320121" },</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1682585</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
@@ -1122,19 +1232,19 @@
       <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="str">
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Leblanc, Ian", da: "1682585" },</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2390388</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
@@ -1143,19 +1253,19 @@
       <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="1" t="str">
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Léveillé, Victor", da: "2390388" },</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>2047852</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
@@ -1164,19 +1274,19 @@
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1" t="str">
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Loiselle, Laurianne", da: "2047852" },</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>2352330</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
@@ -1185,19 +1295,19 @@
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1" t="str">
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Nana Tchuatchui, Arnaud Edmond", da: "2352330" },</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1973680</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
@@ -1206,19 +1316,19 @@
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="str">
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Nguyen, Manh Duc", da: "1973680" },</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>6346389</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
@@ -1227,19 +1337,19 @@
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1" t="str">
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Pazzi, Zachary", da: "6346389" },</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>6298861</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
@@ -1248,19 +1358,19 @@
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1" t="str">
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Rondeau, Benjamin", da: "6298861" },</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>6315593</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
@@ -1269,19 +1379,19 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1" t="str">
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Sant Anna De Lima, Bruno", da: "6315593" },</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>2467035</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
@@ -1290,19 +1400,19 @@
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="1" t="str">
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Synnott, Alexandre", da: "2467035" },</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>1668852</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
@@ -1311,19 +1421,19 @@
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="1" t="str">
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Szwec-Chevrier, Vincent", da: "1668852" },</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>2167562</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
       <c r="D38" t="s">
@@ -1332,12 +1442,202 @@
       <c r="E38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="1" t="str">
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>"{ name: "Trépanier, Julien", da: "2167562" },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
